--- a/LABS/lab2/homework/hoatdongkinhdoanh.xlsx
+++ b/LABS/lab2/homework/hoatdongkinhdoanh.xlsx
@@ -37,6 +37,9 @@
             </t>
   </si>
   <si>
+    <t>11,838,267,527,921</t>
+  </si>
+  <si>
     <t>12,074,425,433,110</t>
   </si>
   <si>
@@ -46,14 +49,14 @@
     <t>13,308,557,627,263</t>
   </si>
   <si>
-    <t>11,838,267,527,921</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 2. Các khoản giảm trừ doanh thu
             </t>
   </si>
   <si>
+    <t>30,656,778,415</t>
+  </si>
+  <si>
     <t>25,056,740,672</t>
   </si>
   <si>
@@ -63,14 +66,14 @@
     <t>15,479,806,923</t>
   </si>
   <si>
-    <t>30,656,778,415</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 3. Doanh thu thuần về bán hàng và cung cấp dịch vụ
             </t>
   </si>
   <si>
+    <t>11,807,610,749,506</t>
+  </si>
+  <si>
     <t>12,049,368,692,438</t>
   </si>
   <si>
@@ -80,14 +83,14 @@
     <t>13,293,077,820,340</t>
   </si>
   <si>
-    <t>11,807,610,749,506</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 4. Giá vốn hàng bán
             </t>
   </si>
   <si>
+    <t>6,327,315,699,575</t>
+  </si>
+  <si>
     <t>6,230,237,376,368</t>
   </si>
   <si>
@@ -97,14 +100,14 @@
     <t>7,022,778,495,998</t>
   </si>
   <si>
-    <t>6,327,315,699,575</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 5. Lợi nhuận gộp về bán hàng và cung cấp dịch vụ
             </t>
   </si>
   <si>
+    <t>5,480,295,049,931</t>
+  </si>
+  <si>
     <t>5,819,131,316,070</t>
   </si>
   <si>
@@ -114,14 +117,14 @@
     <t>6,270,299,324,342</t>
   </si>
   <si>
-    <t>5,480,295,049,931</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 6. Doanh thu hoạt động tài chính
             </t>
   </si>
   <si>
+    <t>194,133,215,944</t>
+  </si>
+  <si>
     <t>199,756,552,892</t>
   </si>
   <si>
@@ -131,14 +134,14 @@
     <t>213,488,861,058</t>
   </si>
   <si>
-    <t>194,133,215,944</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 7. Chi phí tài chính
             </t>
   </si>
   <si>
+    <t>33,702,023,732</t>
+  </si>
+  <si>
     <t>27,661,528,509</t>
   </si>
   <si>
@@ -148,14 +151,14 @@
     <t>17,833,795,652</t>
   </si>
   <si>
-    <t>33,702,023,732</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                   - Trong đó: Chi phí lãi vay
             </t>
   </si>
   <si>
+    <t>19,574,144,919</t>
+  </si>
+  <si>
     <t>13,393,474,209</t>
   </si>
   <si>
@@ -165,14 +168,14 @@
     <t>7,006,245,652</t>
   </si>
   <si>
-    <t>19,574,144,919</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 8. Phần lãi lỗ hoặc lỗ trong công ty liên doanh, liên kết
             </t>
   </si>
   <si>
+    <t>-6,270,069,878</t>
+  </si>
+  <si>
     <t>16,609,907,192</t>
   </si>
   <si>
@@ -182,14 +185,14 @@
     <t>8,393,748,492</t>
   </si>
   <si>
-    <t>-6,270,069,878</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 9. Chi phí bán hàng
             </t>
   </si>
   <si>
+    <t>3,192,490,113,496</t>
+  </si>
+  <si>
     <t>2,303,389,750,323</t>
   </si>
   <si>
@@ -199,14 +202,14 @@
     <t>2,980,515,590,409</t>
   </si>
   <si>
-    <t>3,192,490,113,496</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 10. Chi phí quản lý doanh nghiệp
             </t>
   </si>
   <si>
+    <t>296,402,762,521</t>
+  </si>
+  <si>
     <t>234,141,221,196</t>
   </si>
   <si>
@@ -216,14 +219,14 @@
     <t>265,435,950,848</t>
   </si>
   <si>
-    <t>296,402,762,521</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 11. Lợi nhuận thuần từ hoạt động kinh doanh
             </t>
   </si>
   <si>
+    <t>2,145,563,296,248</t>
+  </si>
+  <si>
     <t>3,470,305,276,126</t>
   </si>
   <si>
@@ -233,14 +236,14 @@
     <t>3,228,396,596,983</t>
   </si>
   <si>
-    <t>2,145,563,296,248</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 12. Thu nhập khác
             </t>
   </si>
   <si>
+    <t>94,658,510,605</t>
+  </si>
+  <si>
     <t>30,423,547,544</t>
   </si>
   <si>
@@ -250,14 +253,14 @@
     <t>65,331,706,324</t>
   </si>
   <si>
-    <t>94,658,510,605</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 13. Chi phí khác
             </t>
   </si>
   <si>
+    <t>36,051,875,486</t>
+  </si>
+  <si>
     <t>24,641,159,915</t>
   </si>
   <si>
@@ -267,14 +270,14 @@
     <t>70,713,968,872</t>
   </si>
   <si>
-    <t>36,051,875,486</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 14. Lợi nhuận khác
             </t>
   </si>
   <si>
+    <t>58,606,635,119</t>
+  </si>
+  <si>
     <t>5,782,387,629</t>
   </si>
   <si>
@@ -284,14 +287,14 @@
     <t>-5,382,262,548</t>
   </si>
   <si>
-    <t>58,606,635,119</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 15. Tổng lợi nhuận kế toán trước thuế
             </t>
   </si>
   <si>
+    <t>2,204,169,931,367</t>
+  </si>
+  <si>
     <t>3,476,087,663,755</t>
   </si>
   <si>
@@ -301,14 +304,14 @@
     <t>3,223,014,334,435</t>
   </si>
   <si>
-    <t>2,204,169,931,367</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 16. Chi phí thuế TNDN hiện hành
             </t>
   </si>
   <si>
+    <t>377,978,824,943</t>
+  </si>
+  <si>
     <t>528,294,248,598</t>
   </si>
   <si>
@@ -318,14 +321,14 @@
     <t>528,097,208,664</t>
   </si>
   <si>
-    <t>377,978,824,943</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 17. Chi phí thuế TNDN hoãn lại
             </t>
   </si>
   <si>
+    <t>-2,096,140,601</t>
+  </si>
+  <si>
     <t>12,787,981,199</t>
   </si>
   <si>
@@ -335,14 +338,14 @@
     <t>-2,150,517,050</t>
   </si>
   <si>
-    <t>-2,096,140,601</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 18. Lợi nhuận sau thuế thu nhập doanh nghiệp
             </t>
   </si>
   <si>
+    <t>1,828,287,247,025</t>
+  </si>
+  <si>
     <t>2,935,005,433,958</t>
   </si>
   <si>
@@ -352,14 +355,14 @@
     <t>2,697,067,642,821</t>
   </si>
   <si>
-    <t>1,828,287,247,025</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 18.1 Lợi ích của cổ đông thiểu số
             </t>
   </si>
   <si>
+    <t>-676,593,137</t>
+  </si>
+  <si>
     <t>-62,830,946</t>
   </si>
   <si>
@@ -369,14 +372,14 @@
     <t>3,163,882,771</t>
   </si>
   <si>
-    <t>-676,593,137</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 18.2  Lợi nhuận sau thuế của công ty mẹ
             </t>
   </si>
   <si>
+    <t>1,828,963,840,162</t>
+  </si>
+  <si>
     <t>2,935,068,264,904</t>
   </si>
   <si>
@@ -386,14 +389,14 @@
     <t>2,693,903,760,050</t>
   </si>
   <si>
-    <t>1,828,963,840,162</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                 19. Lãi cơ bản trên cổ phiếu
             </t>
   </si>
   <si>
+    <t>1,136</t>
+  </si>
+  <si>
     <t>1,799</t>
   </si>
   <si>
@@ -401,9 +404,6 @@
   </si>
   <si>
     <t>1,699</t>
-  </si>
-  <si>
-    <t>1,136</t>
   </si>
   <si>
     <t xml:space="preserve">
